--- a/WorkFlow1.xlsx
+++ b/WorkFlow1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -88,10 +88,10 @@
     <x:t>Step 4</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Validate if the criteria is equals to </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate the Task Trigger is Activated.</x:t>
+    <x:t xml:space="preserve">From the list of the Account displayed, select the appropriateAccount </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account details page.</x:t>
   </x:si>
   <x:si>
     <x:t>Step 5</x:t>
@@ -115,52 +115,10 @@
     <x:t>Click on the Account Page.</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Validate if the Field is Update. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate approriate field is Updated.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Immediate Task WorkFlow Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Order tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Order Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the user is able to locate the Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Should be able to locate the Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Order Tab.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">User is navigated to the Order details page. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scroll down the Order page to locate the 'Open Activities' section.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Immediate FieldUpdate WorkFlow Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Order Page.</x:t>
+    <x:t>Check Wether the Description has updated with Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be Description has updated with Priority</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -244,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J19" totalsRowShown="0">
-  <x:autoFilter ref="A1:J19"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
+  <x:autoFilter ref="A1:J11"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -550,7 +508,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J19"/>
+  <x:dimension ref="A1:J11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -562,8 +520,8 @@
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="62.410625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="46.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="64.550625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="50.270625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -770,191 +728,31 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
-      <x:c r="F12" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s"/>
-      <x:c r="J12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s"/>
-      <x:c r="F13" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s"/>
-      <x:c r="J13" s="0" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="s"/>
-      <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s"/>
-      <x:c r="F14" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s"/>
-      <x:c r="J14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s"/>
-      <x:c r="F15" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s"/>
-      <x:c r="F16" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s"/>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="s"/>
-      <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s"/>
-      <x:c r="F17" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s"/>
-      <x:c r="F18" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s"/>
-      <x:c r="J18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s"/>
-      <x:c r="F19" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
